--- a/models/calculation engines/cbix2/outputs/capesize/common_data_inputs/common_data_inputs_global_factors.xlsx
+++ b/models/calculation engines/cbix2/outputs/capesize/common_data_inputs/common_data_inputs_global_factors.xlsx
@@ -635,7 +635,7 @@
         <v>0.975</v>
       </c>
       <c r="J2" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K2" t="n">
         <v>145.89</v>
@@ -741,7 +741,7 @@
         <v>0.975</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K3" t="n">
         <v>145.89</v>
@@ -847,7 +847,7 @@
         <v>0.975</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K4" t="n">
         <v>145.89</v>
@@ -953,7 +953,7 @@
         <v>0.975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K5" t="n">
         <v>145.89</v>
@@ -1059,7 +1059,7 @@
         <v>0.975</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K6" t="n">
         <v>145.89</v>
@@ -1165,7 +1165,7 @@
         <v>0.975</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K7" t="n">
         <v>145.89</v>
@@ -1271,7 +1271,7 @@
         <v>0.975</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K8" t="n">
         <v>145.89</v>
@@ -1377,7 +1377,7 @@
         <v>0.975</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K9" t="n">
         <v>145.89</v>
@@ -1483,7 +1483,7 @@
         <v>0.975</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K10" t="n">
         <v>145.89</v>
@@ -1589,7 +1589,7 @@
         <v>0.975</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K11" t="n">
         <v>145.89</v>
@@ -1695,7 +1695,7 @@
         <v>0.975</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K12" t="n">
         <v>145.89</v>
@@ -1801,7 +1801,7 @@
         <v>0.975</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K13" t="n">
         <v>145.89</v>
@@ -1907,7 +1907,7 @@
         <v>0.975</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K14" t="n">
         <v>145.89</v>
@@ -2013,7 +2013,7 @@
         <v>0.975</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K15" t="n">
         <v>145.89</v>
@@ -2119,7 +2119,7 @@
         <v>0.975</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K16" t="n">
         <v>145.89</v>
@@ -2225,7 +2225,7 @@
         <v>0.975</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K17" t="n">
         <v>145.89</v>
@@ -2331,7 +2331,7 @@
         <v>0.975</v>
       </c>
       <c r="J18" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K18" t="n">
         <v>145.89</v>
@@ -2437,7 +2437,7 @@
         <v>0.975</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K19" t="n">
         <v>145.89</v>
@@ -2543,7 +2543,7 @@
         <v>0.975</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K20" t="n">
         <v>145.89</v>
@@ -2649,7 +2649,7 @@
         <v>0.975</v>
       </c>
       <c r="J21" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K21" t="n">
         <v>145.89</v>
@@ -2755,7 +2755,7 @@
         <v>0.975</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K22" t="n">
         <v>145.89</v>
@@ -2861,7 +2861,7 @@
         <v>0.975</v>
       </c>
       <c r="J23" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K23" t="n">
         <v>145.89</v>
@@ -2967,7 +2967,7 @@
         <v>0.975</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K24" t="n">
         <v>145.89</v>
@@ -3073,7 +3073,7 @@
         <v>0.975</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K25" t="n">
         <v>145.89</v>
@@ -3179,7 +3179,7 @@
         <v>0.975</v>
       </c>
       <c r="J26" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K26" t="n">
         <v>145.89</v>
@@ -3285,7 +3285,7 @@
         <v>0.975</v>
       </c>
       <c r="J27" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K27" t="n">
         <v>145.89</v>
@@ -3391,7 +3391,7 @@
         <v>0.975</v>
       </c>
       <c r="J28" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K28" t="n">
         <v>145.89</v>
@@ -3497,7 +3497,7 @@
         <v>0.975</v>
       </c>
       <c r="J29" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K29" t="n">
         <v>145.89</v>
@@ -3603,7 +3603,7 @@
         <v>0.975</v>
       </c>
       <c r="J30" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K30" t="n">
         <v>145.89</v>
@@ -3709,7 +3709,7 @@
         <v>0.975</v>
       </c>
       <c r="J31" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K31" t="n">
         <v>145.89</v>
@@ -3815,7 +3815,7 @@
         <v>0.975</v>
       </c>
       <c r="J32" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K32" t="n">
         <v>145.89</v>
@@ -3921,7 +3921,7 @@
         <v>0.975</v>
       </c>
       <c r="J33" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K33" t="n">
         <v>145.89</v>
@@ -4027,7 +4027,7 @@
         <v>0.975</v>
       </c>
       <c r="J34" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K34" t="n">
         <v>145.89</v>
@@ -4133,7 +4133,7 @@
         <v>0.975</v>
       </c>
       <c r="J35" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K35" t="n">
         <v>145.89</v>
@@ -4239,7 +4239,7 @@
         <v>0.975</v>
       </c>
       <c r="J36" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K36" t="n">
         <v>145.89</v>
@@ -4345,7 +4345,7 @@
         <v>0.975</v>
       </c>
       <c r="J37" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K37" t="n">
         <v>145.89</v>
@@ -4451,7 +4451,7 @@
         <v>0.975</v>
       </c>
       <c r="J38" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K38" t="n">
         <v>145.89</v>
@@ -4557,7 +4557,7 @@
         <v>0.975</v>
       </c>
       <c r="J39" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K39" t="n">
         <v>145.89</v>
@@ -4663,7 +4663,7 @@
         <v>0.975</v>
       </c>
       <c r="J40" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K40" t="n">
         <v>145.89</v>
@@ -4769,7 +4769,7 @@
         <v>0.975</v>
       </c>
       <c r="J41" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K41" t="n">
         <v>145.89</v>
@@ -4875,7 +4875,7 @@
         <v>0.975</v>
       </c>
       <c r="J42" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K42" t="n">
         <v>145.89</v>
@@ -4981,7 +4981,7 @@
         <v>0.975</v>
       </c>
       <c r="J43" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K43" t="n">
         <v>145.89</v>
@@ -5087,7 +5087,7 @@
         <v>0.975</v>
       </c>
       <c r="J44" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K44" t="n">
         <v>145.89</v>
@@ -5193,7 +5193,7 @@
         <v>0.975</v>
       </c>
       <c r="J45" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K45" t="n">
         <v>145.89</v>
@@ -5299,7 +5299,7 @@
         <v>0.975</v>
       </c>
       <c r="J46" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K46" t="n">
         <v>145.89</v>
@@ -5405,7 +5405,7 @@
         <v>0.975</v>
       </c>
       <c r="J47" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K47" t="n">
         <v>145.89</v>
@@ -5511,7 +5511,7 @@
         <v>0.975</v>
       </c>
       <c r="J48" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K48" t="n">
         <v>145.89</v>
@@ -5617,7 +5617,7 @@
         <v>0.975</v>
       </c>
       <c r="J49" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K49" t="n">
         <v>145.89</v>
@@ -5723,7 +5723,7 @@
         <v>0.975</v>
       </c>
       <c r="J50" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K50" t="n">
         <v>145.89</v>
@@ -5829,7 +5829,7 @@
         <v>0.975</v>
       </c>
       <c r="J51" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K51" t="n">
         <v>145.89</v>
@@ -5935,7 +5935,7 @@
         <v>0.975</v>
       </c>
       <c r="J52" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K52" t="n">
         <v>145.89</v>
@@ -6041,7 +6041,7 @@
         <v>0.975</v>
       </c>
       <c r="J53" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K53" t="n">
         <v>145.89</v>
@@ -6147,7 +6147,7 @@
         <v>0.975</v>
       </c>
       <c r="J54" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K54" t="n">
         <v>145.89</v>
@@ -6253,7 +6253,7 @@
         <v>0.975</v>
       </c>
       <c r="J55" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K55" t="n">
         <v>145.89</v>
@@ -6359,7 +6359,7 @@
         <v>0.975</v>
       </c>
       <c r="J56" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K56" t="n">
         <v>145.89</v>
@@ -6465,7 +6465,7 @@
         <v>0.975</v>
       </c>
       <c r="J57" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K57" t="n">
         <v>145.89</v>
@@ -6571,7 +6571,7 @@
         <v>0.975</v>
       </c>
       <c r="J58" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K58" t="n">
         <v>145.89</v>
@@ -6677,7 +6677,7 @@
         <v>0.975</v>
       </c>
       <c r="J59" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K59" t="n">
         <v>145.89</v>
@@ -6783,7 +6783,7 @@
         <v>0.975</v>
       </c>
       <c r="J60" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K60" t="n">
         <v>145.89</v>
@@ -6889,7 +6889,7 @@
         <v>0.975</v>
       </c>
       <c r="J61" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K61" t="n">
         <v>145.89</v>
@@ -6995,7 +6995,7 @@
         <v>0.975</v>
       </c>
       <c r="J62" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K62" t="n">
         <v>145.89</v>
@@ -7101,7 +7101,7 @@
         <v>0.975</v>
       </c>
       <c r="J63" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K63" t="n">
         <v>145.89</v>
@@ -7207,7 +7207,7 @@
         <v>0.975</v>
       </c>
       <c r="J64" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K64" t="n">
         <v>145.89</v>
@@ -7313,7 +7313,7 @@
         <v>0.975</v>
       </c>
       <c r="J65" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K65" t="n">
         <v>145.89</v>
@@ -7419,7 +7419,7 @@
         <v>0.975</v>
       </c>
       <c r="J66" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K66" t="n">
         <v>145.89</v>
@@ -7525,7 +7525,7 @@
         <v>0.975</v>
       </c>
       <c r="J67" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K67" t="n">
         <v>145.89</v>
@@ -7631,7 +7631,7 @@
         <v>0.975</v>
       </c>
       <c r="J68" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K68" t="n">
         <v>145.89</v>
@@ -7737,7 +7737,7 @@
         <v>0.975</v>
       </c>
       <c r="J69" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K69" t="n">
         <v>145.89</v>
@@ -7843,7 +7843,7 @@
         <v>0.975</v>
       </c>
       <c r="J70" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K70" t="n">
         <v>145.89</v>
@@ -7949,7 +7949,7 @@
         <v>0.975</v>
       </c>
       <c r="J71" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K71" t="n">
         <v>145.89</v>
@@ -8055,7 +8055,7 @@
         <v>0.975</v>
       </c>
       <c r="J72" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K72" t="n">
         <v>145.89</v>
@@ -8161,7 +8161,7 @@
         <v>0.975</v>
       </c>
       <c r="J73" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K73" t="n">
         <v>145.89</v>
@@ -8267,7 +8267,7 @@
         <v>0.975</v>
       </c>
       <c r="J74" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K74" t="n">
         <v>145.89</v>
@@ -8373,7 +8373,7 @@
         <v>0.975</v>
       </c>
       <c r="J75" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K75" t="n">
         <v>145.89</v>
@@ -8479,7 +8479,7 @@
         <v>0.975</v>
       </c>
       <c r="J76" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K76" t="n">
         <v>145.89</v>
@@ -8585,7 +8585,7 @@
         <v>0.975</v>
       </c>
       <c r="J77" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K77" t="n">
         <v>145.89</v>
@@ -8691,7 +8691,7 @@
         <v>0.975</v>
       </c>
       <c r="J78" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K78" t="n">
         <v>145.89</v>
@@ -8797,7 +8797,7 @@
         <v>0.975</v>
       </c>
       <c r="J79" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K79" t="n">
         <v>145.89</v>
@@ -8903,7 +8903,7 @@
         <v>0.975</v>
       </c>
       <c r="J80" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K80" t="n">
         <v>145.89</v>
@@ -9009,7 +9009,7 @@
         <v>0.975</v>
       </c>
       <c r="J81" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K81" t="n">
         <v>145.89</v>
@@ -9115,7 +9115,7 @@
         <v>0.975</v>
       </c>
       <c r="J82" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K82" t="n">
         <v>145.89</v>
@@ -9221,7 +9221,7 @@
         <v>0.975</v>
       </c>
       <c r="J83" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K83" t="n">
         <v>145.89</v>
@@ -9327,7 +9327,7 @@
         <v>0.975</v>
       </c>
       <c r="J84" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K84" t="n">
         <v>145.89</v>
@@ -9433,7 +9433,7 @@
         <v>0.975</v>
       </c>
       <c r="J85" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K85" t="n">
         <v>145.89</v>
@@ -9539,7 +9539,7 @@
         <v>0.975</v>
       </c>
       <c r="J86" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K86" t="n">
         <v>145.89</v>
@@ -9645,7 +9645,7 @@
         <v>0.975</v>
       </c>
       <c r="J87" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K87" t="n">
         <v>145.89</v>
@@ -9751,7 +9751,7 @@
         <v>0.975</v>
       </c>
       <c r="J88" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K88" t="n">
         <v>145.89</v>
@@ -9857,7 +9857,7 @@
         <v>0.975</v>
       </c>
       <c r="J89" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K89" t="n">
         <v>145.89</v>
@@ -9963,7 +9963,7 @@
         <v>0.975</v>
       </c>
       <c r="J90" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K90" t="n">
         <v>145.89</v>
@@ -10069,7 +10069,7 @@
         <v>0.975</v>
       </c>
       <c r="J91" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K91" t="n">
         <v>145.89</v>
@@ -10175,7 +10175,7 @@
         <v>0.975</v>
       </c>
       <c r="J92" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K92" t="n">
         <v>145.89</v>
@@ -10281,7 +10281,7 @@
         <v>0.975</v>
       </c>
       <c r="J93" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K93" t="n">
         <v>145.89</v>
@@ -10387,7 +10387,7 @@
         <v>0.975</v>
       </c>
       <c r="J94" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K94" t="n">
         <v>145.89</v>
@@ -10493,7 +10493,7 @@
         <v>0.975</v>
       </c>
       <c r="J95" t="n">
-        <v>0.000873</v>
+        <v>0.0008729999999999998</v>
       </c>
       <c r="K95" t="n">
         <v>145.89</v>
